--- a/data/mean_cpi10_level.xlsx
+++ b/data/mean_cpi10_level.xlsx
@@ -213,7 +213,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -2668,7 +2668,18 @@
         <v>2.4318</v>
       </c>
     </row>
-    <row r="223" ht="13" customHeight="1"/>
+    <row r="223" ht="15" customHeight="1">
+      <c r="A223" s="3">
+        <v>2024.0000</v>
+      </c>
+      <c r="B223" s="3">
+        <v>1.0000</v>
+      </c>
+      <c r="C223" s="4">
+        <v>2.2595</v>
+      </c>
+    </row>
+    <row r="224" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/data/mean_cpi10_level.xlsx
+++ b/data/mean_cpi10_level.xlsx
@@ -213,7 +213,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -2679,7 +2679,29 @@
         <v>2.2595</v>
       </c>
     </row>
-    <row r="224" ht="13" customHeight="1"/>
+    <row r="224" ht="15" customHeight="1">
+      <c r="A224" s="3">
+        <v>2024.0000</v>
+      </c>
+      <c r="B224" s="3">
+        <v>2.0000</v>
+      </c>
+      <c r="C224" s="4">
+        <v>2.4126</v>
+      </c>
+    </row>
+    <row r="225" ht="15" customHeight="1">
+      <c r="A225" s="3">
+        <v>2024.0000</v>
+      </c>
+      <c r="B225" s="3">
+        <v>3.0000</v>
+      </c>
+      <c r="C225" s="4">
+        <v>2.2899</v>
+      </c>
+    </row>
+    <row r="226" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
